--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam23-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H2">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J2">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>5.975847955257151</v>
+        <v>0.07173563750988889</v>
       </c>
       <c r="R2">
-        <v>5.975847955257151</v>
+        <v>0.6456207375890001</v>
       </c>
       <c r="S2">
-        <v>0.02224584568184232</v>
+        <v>0.0002222415661810047</v>
       </c>
       <c r="T2">
-        <v>0.02224584568184232</v>
+        <v>0.0002222415661810047</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H3">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I3">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J3">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>34.95676795524793</v>
+        <v>0.08462955103022222</v>
       </c>
       <c r="R3">
-        <v>34.95676795524793</v>
+        <v>0.7616659592720001</v>
       </c>
       <c r="S3">
-        <v>0.1301309657291896</v>
+        <v>0.0002621877301021978</v>
       </c>
       <c r="T3">
-        <v>0.1301309657291896</v>
+        <v>0.0002621877301021978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H4">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I4">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J4">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>2.901687701651975</v>
+        <v>0.01083204209833333</v>
       </c>
       <c r="R4">
-        <v>2.901687701651975</v>
+        <v>0.09748837888499999</v>
       </c>
       <c r="S4">
-        <v>0.01080189745642078</v>
+        <v>3.355835515562709E-05</v>
       </c>
       <c r="T4">
-        <v>0.01080189745642078</v>
+        <v>3.35583551556271E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H5">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I5">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J5">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>5.73389314343019</v>
+        <v>0.01613368044922222</v>
       </c>
       <c r="R5">
-        <v>5.73389314343019</v>
+        <v>0.145203124043</v>
       </c>
       <c r="S5">
-        <v>0.02134513846067774</v>
+        <v>4.998316786136769E-05</v>
       </c>
       <c r="T5">
-        <v>0.02134513846067774</v>
+        <v>4.998316786136771E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H6">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I6">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J6">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>156.0407801346952</v>
+        <v>0.3871464108673333</v>
       </c>
       <c r="R6">
-        <v>156.0407801346952</v>
+        <v>3.484317697806</v>
       </c>
       <c r="S6">
-        <v>0.5808814315459506</v>
+        <v>0.001199404196842192</v>
       </c>
       <c r="T6">
-        <v>0.5808814315459506</v>
+        <v>0.001199404196842192</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>14.1677510963009</v>
+        <v>0.03428566666666667</v>
       </c>
       <c r="H7">
-        <v>14.1677510963009</v>
+        <v>0.102857</v>
       </c>
       <c r="I7">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="J7">
-        <v>0.7768495068152008</v>
+        <v>0.001795213220862138</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>3.074235392959585</v>
+        <v>0.008985678948444445</v>
       </c>
       <c r="R7">
-        <v>3.074235392959585</v>
+        <v>0.080871110536</v>
       </c>
       <c r="S7">
-        <v>0.01144422794111969</v>
+        <v>2.783820471974878E-05</v>
       </c>
       <c r="T7">
-        <v>0.01144422794111969</v>
+        <v>2.783820471974878E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H8">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I8">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J8">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>0.2077036426504329</v>
+        <v>30.49877763434689</v>
       </c>
       <c r="R8">
-        <v>0.2077036426504329</v>
+        <v>274.488998709122</v>
       </c>
       <c r="S8">
-        <v>0.000773202935642499</v>
+        <v>0.09448715231852614</v>
       </c>
       <c r="T8">
-        <v>0.000773202935642499</v>
+        <v>0.09448715231852617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H9">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I9">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J9">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>1.214998790791437</v>
+        <v>35.98069171420622</v>
       </c>
       <c r="R9">
-        <v>1.214998790791437</v>
+        <v>323.8262254278561</v>
       </c>
       <c r="S9">
-        <v>0.00452298582660446</v>
+        <v>0.1114704706951098</v>
       </c>
       <c r="T9">
-        <v>0.00452298582660446</v>
+        <v>0.1114704706951098</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H10">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I10">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J10">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>0.1008544912754801</v>
+        <v>4.605298771303334</v>
       </c>
       <c r="R10">
-        <v>0.1008544912754801</v>
+        <v>41.44768894173</v>
       </c>
       <c r="S10">
-        <v>0.00037544352969377</v>
+        <v>0.01426750841274421</v>
       </c>
       <c r="T10">
-        <v>0.00037544352969377</v>
+        <v>0.01426750841274422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H11">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I11">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J11">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>0.1992939749096316</v>
+        <v>6.859317760668223</v>
       </c>
       <c r="R11">
-        <v>0.1992939749096316</v>
+        <v>61.73385984601401</v>
       </c>
       <c r="S11">
-        <v>0.0007418968896724282</v>
+        <v>0.02125060255934775</v>
       </c>
       <c r="T11">
-        <v>0.0007418968896724282</v>
+        <v>0.02125060255934776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H12">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I12">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J12">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>5.423537994717409</v>
+        <v>164.5973006840653</v>
       </c>
       <c r="R12">
-        <v>5.423537994717409</v>
+        <v>1481.375706156588</v>
       </c>
       <c r="S12">
-        <v>0.02018980238176094</v>
+        <v>0.5099329031285149</v>
       </c>
       <c r="T12">
-        <v>0.02018980238176094</v>
+        <v>0.509932903128515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.492431121557833</v>
+        <v>14.57672866666667</v>
       </c>
       <c r="H13">
-        <v>0.492431121557833</v>
+        <v>43.730186</v>
       </c>
       <c r="I13">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582174</v>
       </c>
       <c r="J13">
-        <v>0.02700110069145261</v>
+        <v>0.7632441939582175</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>0.1068517630072658</v>
+        <v>3.820307920236445</v>
       </c>
       <c r="R13">
-        <v>0.1068517630072658</v>
+        <v>34.382771282128</v>
       </c>
       <c r="S13">
-        <v>0.0003977691280785165</v>
+        <v>0.01183555684397457</v>
       </c>
       <c r="T13">
-        <v>0.0003977691280785165</v>
+        <v>0.01183555684397457</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H14">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I14">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J14">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>0.02253518882961032</v>
+        <v>0.01156479715711111</v>
       </c>
       <c r="R14">
-        <v>0.02253518882961032</v>
+        <v>0.104083174414</v>
       </c>
       <c r="S14">
-        <v>8.389007499323426E-05</v>
+        <v>3.582847691857062E-05</v>
       </c>
       <c r="T14">
-        <v>8.389007499323426E-05</v>
+        <v>3.582847691857064E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H15">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I15">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J15">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>0.1318235290861721</v>
+        <v>0.01364347798577778</v>
       </c>
       <c r="R15">
-        <v>0.1318235290861721</v>
+        <v>0.122791301872</v>
       </c>
       <c r="S15">
-        <v>0.0004907296683656414</v>
+        <v>4.226836229478444E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004907296683656414</v>
+        <v>4.226836229478445E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H16">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I16">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J16">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>0.01094239357675749</v>
+        <v>0.001746278056666666</v>
       </c>
       <c r="R16">
-        <v>0.01094239357675749</v>
+        <v>0.01571650251</v>
       </c>
       <c r="S16">
-        <v>4.073443647179522E-05</v>
+        <v>5.410080453353766E-06</v>
       </c>
       <c r="T16">
-        <v>4.073443647179522E-05</v>
+        <v>5.410080453353768E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H17">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I17">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J17">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>0.02162276645648809</v>
+        <v>0.002600976979777778</v>
       </c>
       <c r="R17">
-        <v>0.02162276645648809</v>
+        <v>0.023408792818</v>
       </c>
       <c r="S17">
-        <v>8.049346794079395E-05</v>
+        <v>8.057992061572854E-06</v>
       </c>
       <c r="T17">
-        <v>8.049346794079395E-05</v>
+        <v>8.057992061572857E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H18">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I18">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J18">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>0.5884367326249594</v>
+        <v>0.06241346515066666</v>
       </c>
       <c r="R18">
-        <v>0.5884367326249594</v>
+        <v>0.561721186356</v>
       </c>
       <c r="S18">
-        <v>0.002190529753352646</v>
+        <v>0.0001933608834793667</v>
       </c>
       <c r="T18">
-        <v>0.002190529753352646</v>
+        <v>0.0001933608834793667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0534272204775867</v>
+        <v>0.005527333333333333</v>
       </c>
       <c r="H19">
-        <v>0.0534272204775867</v>
+        <v>0.016582</v>
       </c>
       <c r="I19">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834145</v>
       </c>
       <c r="J19">
-        <v>0.002929534094465907</v>
+        <v>0.0002894137066834146</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>0.01159307860670534</v>
+        <v>0.001448618259555555</v>
       </c>
       <c r="R19">
-        <v>0.01159307860670534</v>
+        <v>0.013037564336</v>
       </c>
       <c r="S19">
-        <v>4.315669334179652E-05</v>
+        <v>4.487911475766105E-06</v>
       </c>
       <c r="T19">
-        <v>4.315669334179652E-05</v>
+        <v>4.487911475766106E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="H20">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="I20">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="J20">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>1.486327127195692</v>
+        <v>1.318274589555444</v>
       </c>
       <c r="R20">
-        <v>1.486327127195692</v>
+        <v>11.864471305999</v>
       </c>
       <c r="S20">
-        <v>0.005533039687738937</v>
+        <v>0.004084098498449057</v>
       </c>
       <c r="T20">
-        <v>0.005533039687738937</v>
+        <v>0.004084098498449058</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="H21">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="I21">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="J21">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>8.694530530225695</v>
+        <v>1.555224021439111</v>
       </c>
       <c r="R21">
-        <v>8.694530530225695</v>
+        <v>13.997016192952</v>
       </c>
       <c r="S21">
-        <v>0.03236648353499557</v>
+        <v>0.004818182904407896</v>
       </c>
       <c r="T21">
-        <v>0.03236648353499557</v>
+        <v>0.004818182904407896</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="H22">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="I22">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="J22">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>0.7217146717766284</v>
+        <v>0.1990587432816666</v>
       </c>
       <c r="R22">
-        <v>0.7217146717766284</v>
+        <v>1.791528689535</v>
       </c>
       <c r="S22">
-        <v>0.002686673646129184</v>
+        <v>0.0006166966434617896</v>
       </c>
       <c r="T22">
-        <v>0.002686673646129184</v>
+        <v>0.0006166966434617896</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="H23">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="I23">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="J23">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>1.426147550495189</v>
+        <v>0.2964861219681111</v>
       </c>
       <c r="R23">
-        <v>1.426147550495189</v>
+        <v>2.668375097713</v>
       </c>
       <c r="S23">
-        <v>0.005309013643819891</v>
+        <v>0.0009185328573687257</v>
       </c>
       <c r="T23">
-        <v>0.005309013643819891</v>
+        <v>0.0009185328573687258</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.52383677487363</v>
+        <v>0.6300623333333333</v>
       </c>
       <c r="H24">
-        <v>3.52383677487363</v>
+        <v>1.890187</v>
       </c>
       <c r="I24">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="J24">
-        <v>0.1932198583988807</v>
+        <v>0.03299035255064547</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>38.81083424469354</v>
+        <v>7.114529034660666</v>
       </c>
       <c r="R24">
-        <v>38.81083424469354</v>
+        <v>64.03076131194599</v>
       </c>
       <c r="S24">
-        <v>0.1444782122730332</v>
+        <v>0.02204126331330441</v>
       </c>
       <c r="T24">
-        <v>0.1444782122730332</v>
+        <v>0.02204126331330441</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.6300623333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.890187</v>
+      </c>
+      <c r="I25">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="J25">
+        <v>0.03299035255064547</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P25">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q25">
+        <v>0.1651284164862222</v>
+      </c>
+      <c r="R25">
+        <v>1.486155748376</v>
+      </c>
+      <c r="S25">
+        <v>0.0005115783336535947</v>
+      </c>
+      <c r="T25">
+        <v>0.0005115783336535947</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.068201</v>
+      </c>
+      <c r="H26">
+        <v>0.204603</v>
+      </c>
+      <c r="I26">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J26">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N26">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P26">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q26">
+        <v>0.1426964294256667</v>
+      </c>
+      <c r="R26">
+        <v>1.284267864831</v>
+      </c>
+      <c r="S26">
+        <v>0.0004420826114443557</v>
+      </c>
+      <c r="T26">
+        <v>0.0004420826114443558</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.068201</v>
+      </c>
+      <c r="H27">
+        <v>0.204603</v>
+      </c>
+      <c r="I27">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J27">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N27">
+        <v>7.405096</v>
+      </c>
+      <c r="O27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P27">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q27">
+        <v>0.1683449840986667</v>
+      </c>
+      <c r="R27">
+        <v>1.515104856888</v>
+      </c>
+      <c r="S27">
+        <v>0.0005215434646363396</v>
+      </c>
+      <c r="T27">
+        <v>0.0005215434646363396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.068201</v>
+      </c>
+      <c r="H28">
+        <v>0.204603</v>
+      </c>
+      <c r="I28">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J28">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.315935</v>
+      </c>
+      <c r="N28">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P28">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q28">
+        <v>0.021547082935</v>
+      </c>
+      <c r="R28">
+        <v>0.193923746415</v>
+      </c>
+      <c r="S28">
+        <v>6.675423296330604E-05</v>
+      </c>
+      <c r="T28">
+        <v>6.675423296330604E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.068201</v>
+      </c>
+      <c r="H29">
+        <v>0.204603</v>
+      </c>
+      <c r="I29">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J29">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N29">
+        <v>1.411699</v>
+      </c>
+      <c r="O29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P29">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q29">
+        <v>0.03209309449966666</v>
+      </c>
+      <c r="R29">
+        <v>0.288837850497</v>
+      </c>
+      <c r="S29">
+        <v>9.942644733892117E-05</v>
+      </c>
+      <c r="T29">
+        <v>9.942644733892119E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.068201</v>
+      </c>
+      <c r="H30">
+        <v>0.204603</v>
+      </c>
+      <c r="I30">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J30">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>11.291786</v>
+      </c>
+      <c r="N30">
+        <v>33.875358</v>
+      </c>
+      <c r="O30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P30">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q30">
+        <v>0.770111096986</v>
+      </c>
+      <c r="R30">
+        <v>6.930999872873999</v>
+      </c>
+      <c r="S30">
+        <v>0.002385853144525924</v>
+      </c>
+      <c r="T30">
+        <v>0.002385853144525924</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.068201</v>
+      </c>
+      <c r="H31">
+        <v>0.204603</v>
+      </c>
+      <c r="I31">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="J31">
+        <v>0.00357103561865557</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P31">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q31">
+        <v>0.01787429994933333</v>
+      </c>
+      <c r="R31">
+        <v>0.160868699544</v>
+      </c>
+      <c r="S31">
+        <v>5.53757177467237E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.53757177467237E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H32">
+        <v>11.350729</v>
+      </c>
+      <c r="I32">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J32">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.092292333333333</v>
+      </c>
+      <c r="N32">
+        <v>6.276877000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="P32">
+        <v>0.1237967521619938</v>
+      </c>
+      <c r="Q32">
+        <v>7.91634775481478</v>
+      </c>
+      <c r="R32">
+        <v>71.24712979333302</v>
+      </c>
+      <c r="S32">
+        <v>0.02452534869047463</v>
+      </c>
+      <c r="T32">
+        <v>0.02452534869047463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H33">
+        <v>11.350729</v>
+      </c>
+      <c r="I33">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J33">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.468365333333333</v>
+      </c>
+      <c r="N33">
+        <v>7.405096</v>
+      </c>
+      <c r="O33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="P33">
+        <v>0.1460482393151517</v>
+      </c>
+      <c r="Q33">
+        <v>9.339248657220447</v>
+      </c>
+      <c r="R33">
+        <v>84.05323791498401</v>
+      </c>
+      <c r="S33">
+        <v>0.02893358615860067</v>
+      </c>
+      <c r="T33">
+        <v>0.02893358615860068</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H34">
+        <v>11.350729</v>
+      </c>
+      <c r="I34">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J34">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.315935</v>
+      </c>
+      <c r="N34">
+        <v>0.9478049999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="P34">
+        <v>0.01869324198688273</v>
+      </c>
+      <c r="Q34">
+        <v>1.195364188871667</v>
+      </c>
+      <c r="R34">
+        <v>10.758277699845</v>
+      </c>
+      <c r="S34">
+        <v>0.003703314262104435</v>
+      </c>
+      <c r="T34">
+        <v>0.003703314262104436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.52383677487363</v>
-      </c>
-      <c r="H25">
-        <v>3.52383677487363</v>
-      </c>
-      <c r="I25">
-        <v>0.1932198583988807</v>
-      </c>
-      <c r="J25">
-        <v>0.1932198583988807</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="N25">
-        <v>0.216988241257446</v>
-      </c>
-      <c r="O25">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="P25">
-        <v>0.01473158937570397</v>
-      </c>
-      <c r="Q25">
-        <v>0.7646311442581396</v>
-      </c>
-      <c r="R25">
-        <v>0.7646311442581396</v>
-      </c>
-      <c r="S25">
-        <v>0.002846435613163978</v>
-      </c>
-      <c r="T25">
-        <v>0.002846435613163978</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H35">
+        <v>11.350729</v>
+      </c>
+      <c r="I35">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J35">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4705663333333334</v>
+      </c>
+      <c r="N35">
+        <v>1.411699</v>
+      </c>
+      <c r="O35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="P35">
+        <v>0.02784246867197405</v>
+      </c>
+      <c r="Q35">
+        <v>1.780423642063445</v>
+      </c>
+      <c r="R35">
+        <v>16.023812778571</v>
+      </c>
+      <c r="S35">
+        <v>0.005515865647995707</v>
+      </c>
+      <c r="T35">
+        <v>0.005515865647995707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H36">
+        <v>11.350729</v>
+      </c>
+      <c r="I36">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J36">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>11.291786</v>
+      </c>
+      <c r="N36">
+        <v>33.875358</v>
+      </c>
+      <c r="O36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="P36">
+        <v>0.6681123907199095</v>
+      </c>
+      <c r="Q36">
+        <v>42.72333427066467</v>
+      </c>
+      <c r="R36">
+        <v>384.510008435982</v>
+      </c>
+      <c r="S36">
+        <v>0.1323596060532426</v>
+      </c>
+      <c r="T36">
+        <v>0.1323596060532426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.783576333333334</v>
+      </c>
+      <c r="H37">
+        <v>11.350729</v>
+      </c>
+      <c r="I37">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="J37">
+        <v>0.1981097909449359</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.2620826666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.7862480000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="P37">
+        <v>0.01550690714408826</v>
+      </c>
+      <c r="Q37">
+        <v>0.9916097749768891</v>
+      </c>
+      <c r="R37">
+        <v>8.924487974792001</v>
+      </c>
+      <c r="S37">
+        <v>0.003072070132517859</v>
+      </c>
+      <c r="T37">
+        <v>0.003072070132517859</v>
       </c>
     </row>
   </sheetData>
